--- a/Project_Files/CubeUML.xlsx
+++ b/Project_Files/CubeUML.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alexamzi/Desktop/project-rubik-s 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alexamzi/Desktop/project-rubik-s/Project_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F2087F1-3056-2C4B-95CE-6314E293167B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62612F47-A2E3-D14A-A929-0E0C760C0958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="25600" windowHeight="15520" xr2:uid="{1D214CE4-1D52-714C-8808-6BD44EC6C926}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14040" xr2:uid="{1D214CE4-1D52-714C-8808-6BD44EC6C926}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -72,10 +76,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,8 +434,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7010317" y="6793617"/>
-          <a:ext cx="4725219" cy="4178524"/>
+          <a:off x="7100628" y="6985528"/>
+          <a:ext cx="4792953" cy="4297057"/>
           <a:chOff x="11921613" y="3400323"/>
           <a:chExt cx="4322097" cy="4342580"/>
         </a:xfrm>
@@ -1557,8 +1560,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6981898" y="5470902"/>
-          <a:ext cx="4707466" cy="1134533"/>
+          <a:off x="7072209" y="5623302"/>
+          <a:ext cx="4775200" cy="1168400"/>
           <a:chOff x="19490268" y="7366000"/>
           <a:chExt cx="4775200" cy="1168400"/>
         </a:xfrm>
@@ -2389,8 +2392,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7042639" y="11213791"/>
-          <a:ext cx="4707466" cy="1134534"/>
+          <a:off x="7132950" y="11529880"/>
+          <a:ext cx="4775200" cy="1168401"/>
           <a:chOff x="20987288" y="3401018"/>
           <a:chExt cx="4704596" cy="1111573"/>
         </a:xfrm>
@@ -3413,8 +3416,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7055556" y="12891911"/>
-          <a:ext cx="4707466" cy="1134534"/>
+          <a:off x="7145867" y="13258800"/>
+          <a:ext cx="4775200" cy="1168401"/>
           <a:chOff x="20987288" y="3401018"/>
           <a:chExt cx="4704596" cy="1111573"/>
         </a:xfrm>
@@ -3906,23 +3909,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>-1</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>-1</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>564445</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>114949</xdr:rowOff>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>271288</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="214" name="Picture 213">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE10CBF5-788F-CD70-158D-B8D2CFA12891}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F65F5BAA-47B1-5F9A-60AF-E6F5B2EF9A45}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3938,8 +3941,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27827110" y="1382888"/>
-          <a:ext cx="21025557" cy="12758505"/>
+          <a:off x="29336999" y="1828800"/>
+          <a:ext cx="17873489" cy="10845800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4270,14 +4273,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66D13115-1D3C-8A4C-AFCE-AFFC84E80E3B}">
   <dimension ref="F8:AG76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="45" zoomScaleNormal="45" workbookViewId="0">
-      <selection activeCell="BK35" sqref="BK35:BK36"/>
+    <sheetView tabSelected="1" topLeftCell="AG27" zoomScale="75" zoomScaleNormal="45" workbookViewId="0">
+      <selection activeCell="AJ10" sqref="AJ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="10.83203125" style="2"/>
-  </cols>
   <sheetData>
     <row r="8" spans="6:33" x14ac:dyDescent="0.2">
       <c r="F8" s="1"/>
